--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1323.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1323.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.047898606303793</v>
+        <v>0.9446313977241516</v>
       </c>
       <c r="B1">
-        <v>2.515885821960596</v>
+        <v>1.682584881782532</v>
       </c>
       <c r="C1">
-        <v>5.008127142542948</v>
+        <v>5.557644844055176</v>
       </c>
       <c r="D1">
-        <v>2.296528852593339</v>
+        <v>3.593063831329346</v>
       </c>
       <c r="E1">
-        <v>1.23449975562257</v>
+        <v>1.4019855260849</v>
       </c>
     </row>
   </sheetData>
